--- a/data/CasesByDate_probable_12022020.xlsx
+++ b/data/CasesByDate_probable_12022020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE61EFF-4EF2-4398-A186-5F31657F870C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE5D084-1211-44AE-99AF-80C269D8F772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,20 +881,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C309"/>
+  <dimension ref="A1:C316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="F318" sqref="F318"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="B323" sqref="B323"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -905,7 +905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43859</v>
       </c>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43860</v>
       </c>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43861</v>
       </c>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43862</v>
       </c>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43863</v>
       </c>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43864</v>
       </c>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43865</v>
       </c>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43866</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43867</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43868</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43869</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43870</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43871</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43872</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43873</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43874</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43875</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43876</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43877</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43878</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43879</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43880</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43881</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43882</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43883</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43884</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43885</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43886</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43887</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43888</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43889</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43890</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43891</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43892</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43893</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43894</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43895</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43896</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43897</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43898</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43899</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43900</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43901</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43902</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43903</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43904</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43905</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43906</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43907</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43908</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43909</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43910</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43911</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43912</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43913</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43914</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43915</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43916</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43917</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43918</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43919</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43920</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43921</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43922</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43923</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43924</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43925</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43926</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43927</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43928</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43929</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43930</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43931</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43932</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43933</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43934</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43935</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43936</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43937</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43938</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43939</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43940</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43941</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43942</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43943</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43944</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>43945</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>43946</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>43947</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>43948</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>43949</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>43950</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>43951</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>43952</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>43953</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>43954</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>43955</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>43956</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>43957</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>43958</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>43959</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>43960</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>43961</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>43962</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>43963</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>43964</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>43965</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>43966</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>43967</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>43968</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>43969</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>43970</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>43971</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>43972</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>43973</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>43974</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>43975</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>43976</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>43977</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>43978</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>43979</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>43980</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>43981</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>43982</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>43983</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>43984</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>43985</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>43986</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>43987</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>43988</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>43989</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>43990</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>43991</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>43992</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>43993</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>43994</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>43995</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>43996</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>43997</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>43998</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>43999</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44000</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44001</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44002</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44003</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44004</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44005</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44006</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44007</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44008</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44009</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44010</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44011</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44012</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44013</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44014</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44015</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44016</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44017</v>
       </c>
@@ -2813,1792 +2813,1876 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44018</v>
       </c>
       <c r="B161">
         <f t="shared" si="2"/>
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C161">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44019</v>
       </c>
       <c r="B162">
         <f t="shared" si="2"/>
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C162">
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44020</v>
       </c>
       <c r="B163">
         <f t="shared" si="2"/>
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C163">
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44021</v>
       </c>
       <c r="B164">
         <f t="shared" si="2"/>
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C164">
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44022</v>
       </c>
       <c r="B165">
         <f t="shared" si="2"/>
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C165">
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44023</v>
       </c>
       <c r="B166">
         <f t="shared" si="2"/>
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C166">
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44024</v>
       </c>
       <c r="B167">
         <f t="shared" si="2"/>
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C167">
         <v>35</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44025</v>
       </c>
       <c r="B168">
         <f t="shared" si="2"/>
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C168">
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44026</v>
       </c>
       <c r="B169">
         <f t="shared" si="2"/>
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C169">
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44027</v>
       </c>
       <c r="B170">
         <f t="shared" si="2"/>
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C170">
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44028</v>
       </c>
       <c r="B171">
         <f t="shared" si="2"/>
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C171">
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44029</v>
       </c>
       <c r="B172">
         <f t="shared" si="2"/>
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C172">
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44030</v>
       </c>
       <c r="B173">
         <f t="shared" si="2"/>
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C173">
         <v>19</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44031</v>
       </c>
       <c r="B174">
         <f t="shared" si="2"/>
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C174">
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44032</v>
       </c>
       <c r="B175">
         <f t="shared" si="2"/>
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C175">
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44033</v>
       </c>
       <c r="B176">
         <f t="shared" si="2"/>
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C176">
         <v>33</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44034</v>
       </c>
       <c r="B177">
         <f t="shared" si="2"/>
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C177">
         <v>43</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44035</v>
       </c>
       <c r="B178">
         <f t="shared" si="2"/>
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C178">
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44036</v>
       </c>
       <c r="B179">
         <f t="shared" si="2"/>
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C179">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44037</v>
       </c>
       <c r="B180">
         <f t="shared" si="2"/>
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C180">
         <v>41</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44038</v>
       </c>
       <c r="B181">
         <f t="shared" si="2"/>
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C181">
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44039</v>
       </c>
       <c r="B182">
         <f t="shared" si="2"/>
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C182">
         <v>32</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44040</v>
       </c>
       <c r="B183">
         <f t="shared" si="2"/>
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C183">
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44041</v>
       </c>
       <c r="B184">
         <f t="shared" si="2"/>
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C184">
         <v>17</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44042</v>
       </c>
       <c r="B185">
         <f t="shared" si="2"/>
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C185">
         <v>33</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44043</v>
       </c>
       <c r="B186">
         <f t="shared" si="2"/>
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C186">
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44044</v>
       </c>
       <c r="B187">
         <f t="shared" si="2"/>
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C187">
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44045</v>
       </c>
       <c r="B188">
         <f t="shared" si="2"/>
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C188">
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44046</v>
       </c>
       <c r="B189">
         <f t="shared" si="2"/>
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C189">
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44047</v>
       </c>
       <c r="B190">
         <f t="shared" si="2"/>
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C190">
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44048</v>
       </c>
       <c r="B191">
         <f t="shared" si="2"/>
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C191">
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44049</v>
       </c>
       <c r="B192">
         <f t="shared" si="2"/>
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C192">
         <v>23</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>44050</v>
       </c>
       <c r="B193">
         <f t="shared" si="2"/>
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C193">
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>44051</v>
       </c>
       <c r="B194">
         <f t="shared" si="2"/>
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="C194">
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>44052</v>
       </c>
       <c r="B195">
         <f t="shared" si="2"/>
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="C195">
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>44053</v>
       </c>
       <c r="B196">
         <f t="shared" ref="B196:B259" si="3">C196+B195</f>
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="C196">
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>44054</v>
       </c>
       <c r="B197">
         <f t="shared" si="3"/>
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C197">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>44055</v>
       </c>
       <c r="B198">
         <f t="shared" si="3"/>
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C198">
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>44056</v>
       </c>
       <c r="B199">
         <f t="shared" si="3"/>
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C199">
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44057</v>
       </c>
       <c r="B200">
         <f t="shared" si="3"/>
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C200">
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44058</v>
       </c>
       <c r="B201">
         <f t="shared" si="3"/>
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C201">
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44059</v>
       </c>
       <c r="B202">
         <f t="shared" si="3"/>
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C202">
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44060</v>
       </c>
       <c r="B203">
         <f t="shared" si="3"/>
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C203">
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44061</v>
       </c>
       <c r="B204">
         <f t="shared" si="3"/>
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C204">
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44062</v>
       </c>
       <c r="B205">
         <f t="shared" si="3"/>
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C205">
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44063</v>
       </c>
       <c r="B206">
         <f t="shared" si="3"/>
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C206">
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44064</v>
       </c>
       <c r="B207">
         <f t="shared" si="3"/>
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C207">
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44065</v>
       </c>
       <c r="B208">
         <f t="shared" si="3"/>
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C208">
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44066</v>
       </c>
       <c r="B209">
         <f t="shared" si="3"/>
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C209">
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44067</v>
       </c>
       <c r="B210">
         <f t="shared" si="3"/>
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="C210">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44068</v>
       </c>
       <c r="B211">
         <f t="shared" si="3"/>
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="C211">
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44069</v>
       </c>
       <c r="B212">
         <f t="shared" si="3"/>
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="C212">
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44070</v>
       </c>
       <c r="B213">
         <f t="shared" si="3"/>
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C213">
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44071</v>
       </c>
       <c r="B214">
         <f t="shared" si="3"/>
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="C214">
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44072</v>
       </c>
       <c r="B215">
         <f t="shared" si="3"/>
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="C215">
         <v>18</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44073</v>
       </c>
       <c r="B216">
         <f t="shared" si="3"/>
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="C216">
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44074</v>
       </c>
       <c r="B217">
         <f t="shared" si="3"/>
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="C217">
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44075</v>
       </c>
       <c r="B218">
         <f t="shared" si="3"/>
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="C218">
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44076</v>
       </c>
       <c r="B219">
         <f t="shared" si="3"/>
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="C219">
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44077</v>
       </c>
       <c r="B220">
         <f t="shared" si="3"/>
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="C220">
         <v>25</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44078</v>
       </c>
       <c r="B221">
         <f t="shared" si="3"/>
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="C221">
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44079</v>
       </c>
       <c r="B222">
         <f t="shared" si="3"/>
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="C222">
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44080</v>
       </c>
       <c r="B223">
         <f t="shared" si="3"/>
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="C223">
         <v>18</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44081</v>
       </c>
       <c r="B224">
         <f t="shared" si="3"/>
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="C224">
         <v>22</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44082</v>
       </c>
       <c r="B225">
         <f t="shared" si="3"/>
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="C225">
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44083</v>
       </c>
       <c r="B226">
         <f t="shared" si="3"/>
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="C226">
         <v>31</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>44084</v>
       </c>
       <c r="B227">
         <f t="shared" si="3"/>
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="C227">
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>44085</v>
       </c>
       <c r="B228">
         <f t="shared" si="3"/>
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="C228">
         <v>23</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44086</v>
       </c>
       <c r="B229">
         <f t="shared" si="3"/>
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="C229">
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>44087</v>
       </c>
       <c r="B230">
         <f t="shared" si="3"/>
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="C230">
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>44088</v>
       </c>
       <c r="B231">
         <f t="shared" si="3"/>
-        <v>1913</v>
+        <v>1910</v>
       </c>
       <c r="C231">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44089</v>
       </c>
       <c r="B232">
         <f t="shared" si="3"/>
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="C232">
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>44090</v>
       </c>
       <c r="B233">
         <f t="shared" si="3"/>
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="C233">
         <v>24</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>44091</v>
       </c>
       <c r="B234">
         <f t="shared" si="3"/>
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="C234">
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>44092</v>
       </c>
       <c r="B235">
         <f t="shared" si="3"/>
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="C235">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>44093</v>
       </c>
       <c r="B236">
         <f t="shared" si="3"/>
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="C236">
         <v>21</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44094</v>
       </c>
       <c r="B237">
         <f t="shared" si="3"/>
-        <v>2044</v>
+        <v>2040</v>
       </c>
       <c r="C237">
         <v>19</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44095</v>
       </c>
       <c r="B238">
         <f t="shared" si="3"/>
-        <v>2068</v>
+        <v>2064</v>
       </c>
       <c r="C238">
         <v>24</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44096</v>
       </c>
       <c r="B239">
         <f t="shared" si="3"/>
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="C239">
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44097</v>
       </c>
       <c r="B240">
         <f t="shared" si="3"/>
-        <v>2123</v>
+        <v>2119</v>
       </c>
       <c r="C240">
         <v>47</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44098</v>
       </c>
       <c r="B241">
         <f t="shared" si="3"/>
-        <v>2161</v>
+        <v>2157</v>
       </c>
       <c r="C241">
         <v>38</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44099</v>
       </c>
       <c r="B242">
         <f t="shared" si="3"/>
-        <v>2196</v>
+        <v>2192</v>
       </c>
       <c r="C242">
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44100</v>
       </c>
       <c r="B243">
         <f t="shared" si="3"/>
-        <v>2220</v>
+        <v>2216</v>
       </c>
       <c r="C243">
         <v>24</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44101</v>
       </c>
       <c r="B244">
         <f t="shared" si="3"/>
-        <v>2248</v>
+        <v>2244</v>
       </c>
       <c r="C244">
         <v>28</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>44102</v>
       </c>
       <c r="B245">
         <f t="shared" si="3"/>
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="C245">
         <v>34</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>44103</v>
       </c>
       <c r="B246">
         <f t="shared" si="3"/>
-        <v>2320</v>
+        <v>2316</v>
       </c>
       <c r="C246">
         <v>38</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>44104</v>
       </c>
       <c r="B247">
         <f t="shared" si="3"/>
-        <v>2368</v>
+        <v>2364</v>
       </c>
       <c r="C247">
         <v>48</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>44105</v>
       </c>
       <c r="B248">
         <f t="shared" si="3"/>
-        <v>2404</v>
+        <v>2400</v>
       </c>
       <c r="C248">
         <v>36</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>44106</v>
       </c>
       <c r="B249">
         <f t="shared" si="3"/>
-        <v>2431</v>
+        <v>2427</v>
       </c>
       <c r="C249">
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>44107</v>
       </c>
       <c r="B250">
         <f t="shared" si="3"/>
-        <v>2477</v>
+        <v>2473</v>
       </c>
       <c r="C250">
         <v>46</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>44108</v>
       </c>
       <c r="B251">
         <f t="shared" si="3"/>
-        <v>2518</v>
+        <v>2513</v>
       </c>
       <c r="C251">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>44109</v>
       </c>
       <c r="B252">
         <f t="shared" si="3"/>
-        <v>2533</v>
+        <v>2528</v>
       </c>
       <c r="C252">
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>44110</v>
       </c>
       <c r="B253">
         <f t="shared" si="3"/>
-        <v>2570</v>
+        <v>2565</v>
       </c>
       <c r="C253">
         <v>37</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>44111</v>
       </c>
       <c r="B254">
         <f t="shared" si="3"/>
-        <v>2601</v>
+        <v>2596</v>
       </c>
       <c r="C254">
         <v>31</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>44112</v>
       </c>
       <c r="B255">
         <f t="shared" si="3"/>
-        <v>2678</v>
+        <v>2673</v>
       </c>
       <c r="C255">
         <v>77</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>44113</v>
       </c>
       <c r="B256">
         <f t="shared" si="3"/>
-        <v>2707</v>
+        <v>2701</v>
       </c>
       <c r="C256">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>44114</v>
       </c>
       <c r="B257">
         <f t="shared" si="3"/>
-        <v>2739</v>
+        <v>2733</v>
       </c>
       <c r="C257">
         <v>32</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>44115</v>
       </c>
       <c r="B258">
         <f t="shared" si="3"/>
-        <v>2788</v>
+        <v>2782</v>
       </c>
       <c r="C258">
         <v>49</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>44116</v>
       </c>
       <c r="B259">
         <f t="shared" si="3"/>
-        <v>2836</v>
+        <v>2830</v>
       </c>
       <c r="C259">
         <v>48</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44117</v>
       </c>
       <c r="B260">
-        <f t="shared" ref="B260:B309" si="4">C260+B259</f>
-        <v>2868</v>
+        <f t="shared" ref="B260:B316" si="4">C260+B259</f>
+        <v>2862</v>
       </c>
       <c r="C260">
         <v>32</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>44118</v>
       </c>
       <c r="B261">
         <f t="shared" si="4"/>
-        <v>2913</v>
+        <v>2907</v>
       </c>
       <c r="C261">
         <v>45</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>44119</v>
       </c>
       <c r="B262">
         <f t="shared" si="4"/>
-        <v>2945</v>
+        <v>2940</v>
       </c>
       <c r="C262">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>44120</v>
       </c>
       <c r="B263">
         <f t="shared" si="4"/>
-        <v>2991</v>
+        <v>2986</v>
       </c>
       <c r="C263">
         <v>46</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>44121</v>
       </c>
       <c r="B264">
         <f t="shared" si="4"/>
-        <v>3041</v>
+        <v>3036</v>
       </c>
       <c r="C264">
         <v>50</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>44122</v>
       </c>
       <c r="B265">
         <f t="shared" si="4"/>
-        <v>3086</v>
+        <v>3081</v>
       </c>
       <c r="C265">
         <v>45</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44123</v>
       </c>
       <c r="B266">
         <f t="shared" si="4"/>
-        <v>3152</v>
+        <v>3147</v>
       </c>
       <c r="C266">
         <v>66</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>44124</v>
       </c>
       <c r="B267">
         <f t="shared" si="4"/>
-        <v>3204</v>
+        <v>3199</v>
       </c>
       <c r="C267">
         <v>52</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>44125</v>
       </c>
       <c r="B268">
         <f t="shared" si="4"/>
-        <v>3279</v>
+        <v>3274</v>
       </c>
       <c r="C268">
         <v>75</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>44126</v>
       </c>
       <c r="B269">
         <f t="shared" si="4"/>
-        <v>3351</v>
+        <v>3346</v>
       </c>
       <c r="C269">
         <v>72</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>44127</v>
       </c>
       <c r="B270">
         <f t="shared" si="4"/>
-        <v>3421</v>
+        <v>3416</v>
       </c>
       <c r="C270">
         <v>70</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>44128</v>
       </c>
       <c r="B271">
         <f t="shared" si="4"/>
-        <v>3490</v>
+        <v>3485</v>
       </c>
       <c r="C271">
         <v>69</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>44129</v>
       </c>
       <c r="B272">
         <f t="shared" si="4"/>
-        <v>3556</v>
+        <v>3551</v>
       </c>
       <c r="C272">
         <v>66</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>44130</v>
       </c>
       <c r="B273">
         <f t="shared" si="4"/>
-        <v>3624</v>
+        <v>3618</v>
       </c>
       <c r="C273">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>44131</v>
       </c>
       <c r="B274">
         <f t="shared" si="4"/>
-        <v>3710</v>
+        <v>3704</v>
       </c>
       <c r="C274">
         <v>86</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>44132</v>
       </c>
       <c r="B275">
         <f t="shared" si="4"/>
-        <v>3786</v>
+        <v>3780</v>
       </c>
       <c r="C275">
         <v>76</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>44133</v>
       </c>
       <c r="B276">
         <f t="shared" si="4"/>
-        <v>3891</v>
+        <v>3885</v>
       </c>
       <c r="C276">
         <v>105</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>44134</v>
       </c>
       <c r="B277">
         <f t="shared" si="4"/>
-        <v>3964</v>
+        <v>3957</v>
       </c>
       <c r="C277">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>44135</v>
       </c>
       <c r="B278">
         <f t="shared" si="4"/>
-        <v>4028</v>
+        <v>4021</v>
       </c>
       <c r="C278">
         <v>64</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>44136</v>
       </c>
       <c r="B279">
         <f t="shared" si="4"/>
-        <v>4091</v>
+        <v>4084</v>
       </c>
       <c r="C279">
         <v>63</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>44137</v>
       </c>
       <c r="B280">
         <f t="shared" si="4"/>
-        <v>4177</v>
+        <v>4170</v>
       </c>
       <c r="C280">
         <v>86</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>44138</v>
       </c>
       <c r="B281">
         <f t="shared" si="4"/>
-        <v>4263</v>
+        <v>4255</v>
       </c>
       <c r="C281">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>44139</v>
       </c>
       <c r="B282">
         <f t="shared" si="4"/>
-        <v>4370</v>
+        <v>4362</v>
       </c>
       <c r="C282">
         <v>107</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>44140</v>
       </c>
       <c r="B283">
         <f t="shared" si="4"/>
-        <v>4464</v>
+        <v>4456</v>
       </c>
       <c r="C283">
         <v>94</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>44141</v>
       </c>
       <c r="B284">
         <f t="shared" si="4"/>
-        <v>4582</v>
+        <v>4574</v>
       </c>
       <c r="C284">
         <v>118</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>44142</v>
       </c>
       <c r="B285">
         <f t="shared" si="4"/>
-        <v>4665</v>
+        <v>4657</v>
       </c>
       <c r="C285">
         <v>83</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>44143</v>
       </c>
       <c r="B286">
         <f t="shared" si="4"/>
-        <v>4759</v>
+        <v>4751</v>
       </c>
       <c r="C286">
         <v>94</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>44144</v>
       </c>
       <c r="B287">
         <f t="shared" si="4"/>
-        <v>4889</v>
+        <v>4881</v>
       </c>
       <c r="C287">
         <v>130</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>44145</v>
       </c>
       <c r="B288">
         <f t="shared" si="4"/>
-        <v>4999</v>
+        <v>4989</v>
       </c>
       <c r="C288">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>44146</v>
       </c>
       <c r="B289">
         <f t="shared" si="4"/>
-        <v>5180</v>
+        <v>5168</v>
       </c>
       <c r="C289">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>44147</v>
       </c>
       <c r="B290">
         <f t="shared" si="4"/>
-        <v>5370</v>
+        <v>5357</v>
       </c>
       <c r="C290">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>44148</v>
       </c>
       <c r="B291">
         <f t="shared" si="4"/>
-        <v>5510</v>
+        <v>5496</v>
       </c>
       <c r="C291">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>44149</v>
       </c>
       <c r="B292">
         <f t="shared" si="4"/>
-        <v>5625</v>
+        <v>5608</v>
       </c>
       <c r="C292">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>44150</v>
       </c>
       <c r="B293">
         <f t="shared" si="4"/>
-        <v>5798</v>
+        <v>5779</v>
       </c>
       <c r="C293">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>44151</v>
       </c>
       <c r="B294">
         <f t="shared" si="4"/>
-        <v>5950</v>
+        <v>5930</v>
       </c>
       <c r="C294">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>44152</v>
       </c>
       <c r="B295">
         <f t="shared" si="4"/>
-        <v>6115</v>
+        <v>6087</v>
       </c>
       <c r="C295">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>44153</v>
       </c>
       <c r="B296">
         <f t="shared" si="4"/>
-        <v>6320</v>
+        <v>6286</v>
       </c>
       <c r="C296">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>44154</v>
       </c>
       <c r="B297">
         <f t="shared" si="4"/>
-        <v>6450</v>
+        <v>6409</v>
       </c>
       <c r="C297">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>44155</v>
       </c>
       <c r="B298">
         <f t="shared" si="4"/>
-        <v>6551</v>
+        <v>6509</v>
       </c>
       <c r="C298">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>44156</v>
       </c>
       <c r="B299">
         <f t="shared" si="4"/>
-        <v>6645</v>
+        <v>6597</v>
       </c>
       <c r="C299">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>44157</v>
       </c>
       <c r="B300">
         <f t="shared" si="4"/>
-        <v>6759</v>
+        <v>6710</v>
       </c>
       <c r="C300">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>44158</v>
       </c>
       <c r="B301">
         <f t="shared" si="4"/>
-        <v>6944</v>
+        <v>6884</v>
       </c>
       <c r="C301">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>44159</v>
       </c>
       <c r="B302">
         <f t="shared" si="4"/>
-        <v>7126</v>
+        <v>7056</v>
       </c>
       <c r="C302">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>44160</v>
       </c>
       <c r="B303">
         <f t="shared" si="4"/>
-        <v>7367</v>
+        <v>7286</v>
       </c>
       <c r="C303">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>44161</v>
       </c>
       <c r="B304">
         <f t="shared" si="4"/>
-        <v>7421</v>
+        <v>7333</v>
       </c>
       <c r="C304">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>44162</v>
       </c>
       <c r="B305">
         <f t="shared" si="4"/>
-        <v>7681</v>
+        <v>7603</v>
       </c>
       <c r="C305">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>44163</v>
       </c>
       <c r="B306">
         <f t="shared" si="4"/>
-        <v>7792</v>
+        <v>7724</v>
       </c>
       <c r="C306">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>44164</v>
       </c>
       <c r="B307">
         <f t="shared" si="4"/>
-        <v>8029</v>
+        <v>7908</v>
       </c>
       <c r="C307">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>44165</v>
       </c>
       <c r="B308">
         <f t="shared" si="4"/>
-        <v>8385</v>
+        <v>8194</v>
       </c>
       <c r="C308">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>44166</v>
       </c>
       <c r="B309">
         <f t="shared" si="4"/>
-        <v>8445</v>
+        <v>8446</v>
       </c>
       <c r="C309">
-        <v>60</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B310">
+        <f t="shared" si="4"/>
+        <v>8682</v>
+      </c>
+      <c r="C310">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B311">
+        <f t="shared" si="4"/>
+        <v>8998</v>
+      </c>
+      <c r="C311">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B312">
+        <f t="shared" si="4"/>
+        <v>9198</v>
+      </c>
+      <c r="C312">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B313">
+        <f t="shared" si="4"/>
+        <v>9438</v>
+      </c>
+      <c r="C313">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B314">
+        <f t="shared" si="4"/>
+        <v>9695</v>
+      </c>
+      <c r="C314">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B315">
+        <f t="shared" si="4"/>
+        <v>10051</v>
+      </c>
+      <c r="C315">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B316">
+        <f t="shared" si="4"/>
+        <v>10088</v>
+      </c>
+      <c r="C316">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
